--- a/config/律师身份.xlsx
+++ b/config/律师身份.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15870" windowHeight="8370"/>
+    <workbookView windowWidth="18540" windowHeight="9730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
   <si>
     <t>姓名</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>王彬</t>
+  </si>
+  <si>
+    <t>陈方圆</t>
   </si>
 </sst>
 </file>
@@ -68,10 +71,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,60 +85,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -157,6 +132,42 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -166,31 +177,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,9 +192,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -214,13 +224,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -235,13 +238,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,79 +400,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -337,85 +418,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,26 +429,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -464,10 +447,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -506,23 +524,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,10 +537,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -546,133 +549,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,12 +1008,12 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="$A11:$XFD11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="11.3083333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.3090909090909" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1124,8 +1127,16 @@
         <v>41640</v>
       </c>
     </row>
-    <row r="11" spans="3:3">
-      <c r="C11" s="1"/>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>42217</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -1142,7 +1153,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1158,7 +1169,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/config/律师身份.xlsx
+++ b/config/律师身份.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
   <si>
     <t>姓名</t>
   </si>
@@ -64,6 +64,9 @@
   </si>
   <si>
     <t>陈方圆</t>
+  </si>
+  <si>
+    <t>罗烨希</t>
   </si>
 </sst>
 </file>
@@ -71,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -82,6 +85,36 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,17 +135,53 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -124,23 +193,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,29 +211,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -191,43 +231,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -238,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,21 +432,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -465,17 +453,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -487,21 +481,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -524,8 +503,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -537,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -549,7 +552,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,124 +561,124 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1005,10 +1008,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1136,6 +1139,17 @@
       </c>
       <c r="C11" s="1">
         <v>42217</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="1">
+        <v>43198</v>
       </c>
     </row>
   </sheetData>

--- a/config/律师身份.xlsx
+++ b/config/律师身份.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18540" windowHeight="9730"/>
+    <workbookView windowWidth="15525" windowHeight="7860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,10 +74,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -85,36 +85,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,65 +96,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -193,32 +104,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,6 +126,111 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -241,43 +241,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,7 +373,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -301,61 +403,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -367,55 +415,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -432,6 +432,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -459,21 +522,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -484,54 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,15 +1008,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="11.3090909090909" customWidth="1"/>
+    <col min="2" max="2" width="11.3083333333333" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1150,6 +1150,17 @@
       </c>
       <c r="C12" s="1">
         <v>43198</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
+        <v>43282</v>
       </c>
     </row>
   </sheetData>
@@ -1167,7 +1178,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1183,7 +1194,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/config/律师身份.xlsx
+++ b/config/律师身份.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15525" windowHeight="7860"/>
+    <workbookView windowWidth="19200" windowHeight="9070"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -74,15 +74,105 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -96,53 +186,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -150,83 +226,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,187 +241,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,15 +444,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -464,6 +455,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -483,6 +500,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -498,21 +524,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -521,17 +532,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -540,10 +540,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,133 +552,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,15 +1008,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="11.3083333333333" customWidth="1"/>
+    <col min="2" max="2" width="11.3090909090909" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1161,6 +1161,17 @@
       </c>
       <c r="C13" s="1">
         <v>43282</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>43435</v>
       </c>
     </row>
   </sheetData>
@@ -1178,7 +1189,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1194,7 +1205,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.025" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/config/律师身份.xlsx
+++ b/config/律师身份.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
   <si>
     <t>姓名</t>
   </si>
@@ -67,6 +67,9 @@
   </si>
   <si>
     <t>罗烨希</t>
+  </si>
+  <si>
+    <t>孙跃红</t>
   </si>
 </sst>
 </file>
@@ -74,8 +77,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -95,6 +98,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -110,23 +120,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,7 +168,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,9 +189,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,23 +206,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -196,37 +230,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -241,13 +244,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -259,163 +394,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,71 +443,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,8 +465,73 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -540,145 +543,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1008,10 +1011,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
@@ -1172,6 +1175,17 @@
       </c>
       <c r="C14" s="1">
         <v>43435</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="1">
+        <v>43577</v>
       </c>
     </row>
   </sheetData>

--- a/config/律师身份.xlsx
+++ b/config/律师身份.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="9070"/>
+    <workbookView windowWidth="23040" windowHeight="9300"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>姓名</t>
   </si>
@@ -70,6 +70,12 @@
   </si>
   <si>
     <t>孙跃红</t>
+  </si>
+  <si>
+    <t>郑锦骅</t>
+  </si>
+  <si>
+    <t>张敏</t>
   </si>
 </sst>
 </file>
@@ -78,9 +84,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -91,6 +97,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -100,6 +137,59 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -113,15 +203,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -130,30 +221,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,75 +236,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,187 +250,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,11 +444,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -464,69 +533,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -543,10 +549,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,133 +561,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1011,15 +1017,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9.02777777777778" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
-    <col min="2" max="2" width="11.3090909090909" customWidth="1"/>
+    <col min="2" max="2" width="11.3055555555556" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1186,6 +1192,28 @@
       </c>
       <c r="C15" s="1">
         <v>43577</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="1">
+        <v>44394</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C17" s="1">
+        <v>44613</v>
       </c>
     </row>
   </sheetData>
@@ -1203,7 +1231,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02777777777778" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
@@ -1219,7 +1247,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.02727272727273" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9.02777777777778" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
